--- a/05-mayo/7_RAMIREZ/RAMIREZ.xlsx
+++ b/05-mayo/7_RAMIREZ/RAMIREZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\7_RAMIREZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\7_RAMIREZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962AFBB1-7371-447E-99FF-5F7A7FD0B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261AD4CF-CAE2-4DF1-A0F7-0F5B3F21292A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="555" windowWidth="24930" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26655" yWindow="1695" windowWidth="25095" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>IBAÑEZ</t>
   </si>
   <si>
-    <t>ABRIL 2025</t>
+    <t>MAYO 2025</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,32 +552,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="6">
-        <v>490791.05</v>
+        <v>517001.96</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>80832.73</v>
+        <v>67305.429999999993</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
         <f>+B5+C5</f>
-        <v>490791.05</v>
+        <v>517001.96</v>
       </c>
       <c r="G5" s="6">
         <f>+D5+E5</f>
-        <v>80832.73</v>
+        <v>67305.429999999993</v>
       </c>
       <c r="H5" s="6">
         <f>+B5+C5+D5+E5</f>
-        <v>571623.78</v>
+        <v>584307.39</v>
       </c>
       <c r="I5" s="6">
         <f>+H5*2</f>
-        <v>1143247.56</v>
+        <v>1168614.78</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
@@ -595,7 +595,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="7">
         <f>SUM(B5:B6)</f>
-        <v>490791.05</v>
+        <v>517001.96</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(C5:C6)</f>
@@ -603,7 +603,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(D5:D6)</f>
-        <v>80832.73</v>
+        <v>67305.429999999993</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(E5:E6)</f>
@@ -611,19 +611,19 @@
       </c>
       <c r="F7" s="7">
         <f>SUM(F5:F6)</f>
-        <v>490791.05</v>
+        <v>517001.96</v>
       </c>
       <c r="G7" s="6">
         <f>+D7+E7</f>
-        <v>80832.73</v>
+        <v>67305.429999999993</v>
       </c>
       <c r="H7" s="7">
         <f>SUM(H5:H6)</f>
-        <v>571623.78</v>
+        <v>584307.39</v>
       </c>
       <c r="I7" s="7">
         <f>SUM(I5:I6)</f>
-        <v>1143247.56</v>
+        <v>1168614.78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8">
-        <v>1062414.83</v>
+        <v>1101309.3500000001</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -734,14 +734,14 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8">
-        <v>34297.440000000002</v>
+        <v>35058.42</v>
       </c>
       <c r="D15" s="8">
-        <v>31872.45</v>
+        <v>33039.279999999999</v>
       </c>
       <c r="E15" s="8">
         <f>+C15-D15</f>
-        <v>2424.9900000000016</v>
+        <v>2019.1399999999994</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
